--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2587.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2587.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8089186284933652</v>
+        <v>1.337401628494263</v>
       </c>
       <c r="B1">
-        <v>1.32124693652944</v>
+        <v>3.584694385528564</v>
       </c>
       <c r="C1">
-        <v>3.451958896160332</v>
+        <v>5.460087776184082</v>
       </c>
       <c r="D1">
-        <v>2.373489780510757</v>
+        <v>1.415757775306702</v>
       </c>
       <c r="E1">
-        <v>0.9851990466319844</v>
+        <v>0.6786640882492065</v>
       </c>
     </row>
   </sheetData>
